--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Dcn-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Dcn-Egfr.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.15163</v>
+        <v>1.006697333333333</v>
       </c>
       <c r="H2">
-        <v>9.454890000000001</v>
+        <v>3.020092</v>
       </c>
       <c r="I2">
-        <v>0.0006291248881010851</v>
+        <v>0.0001985651645046208</v>
       </c>
       <c r="J2">
-        <v>0.0006291248881010851</v>
+        <v>0.0001985651645046208</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.307106666666667</v>
+        <v>0.428743</v>
       </c>
       <c r="N2">
-        <v>3.92132</v>
+        <v>1.286229</v>
       </c>
       <c r="O2">
-        <v>0.01256263154946851</v>
+        <v>0.00412050394863168</v>
       </c>
       <c r="P2">
-        <v>0.01256263154946851</v>
+        <v>0.00412050394863168</v>
       </c>
       <c r="Q2">
-        <v>4.119516583866667</v>
+        <v>0.4316144347853334</v>
       </c>
       <c r="R2">
-        <v>37.07564925480001</v>
+        <v>3.884529913068</v>
       </c>
       <c r="S2">
-        <v>7.903464167814535E-06</v>
+        <v>8.181885444019891E-07</v>
       </c>
       <c r="T2">
-        <v>7.903464167814535E-06</v>
+        <v>8.181885444019891E-07</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.15163</v>
+        <v>1.006697333333333</v>
       </c>
       <c r="H3">
-        <v>9.454890000000001</v>
+        <v>3.020092</v>
       </c>
       <c r="I3">
-        <v>0.0006291248881010851</v>
+        <v>0.0001985651645046208</v>
       </c>
       <c r="J3">
-        <v>0.0006291248881010851</v>
+        <v>0.0001985651645046208</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>80.22623700000001</v>
+        <v>80.22623699999998</v>
       </c>
       <c r="N3">
         <v>240.678711</v>
       </c>
       <c r="O3">
-        <v>0.77105616682495</v>
+        <v>0.7710272268990069</v>
       </c>
       <c r="P3">
-        <v>0.77105616682495</v>
+        <v>0.7710272268990069</v>
       </c>
       <c r="Q3">
-        <v>252.8434153163101</v>
+        <v>80.76353885126798</v>
       </c>
       <c r="R3">
-        <v>2275.59073784679</v>
+        <v>726.8718496614119</v>
       </c>
       <c r="S3">
-        <v>0.0004850906246733983</v>
+        <v>0.0001530991481467429</v>
       </c>
       <c r="T3">
-        <v>0.0004850906246733983</v>
+        <v>0.0001530991481467429</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.15163</v>
+        <v>1.006697333333333</v>
       </c>
       <c r="H4">
-        <v>9.454890000000001</v>
+        <v>3.020092</v>
       </c>
       <c r="I4">
-        <v>0.0006291248881010851</v>
+        <v>0.0001985651645046208</v>
       </c>
       <c r="J4">
-        <v>0.0006291248881010851</v>
+        <v>0.0001985651645046208</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>22.51385866666667</v>
+        <v>23.39612766666667</v>
       </c>
       <c r="N4">
-        <v>67.54157600000001</v>
+        <v>70.188383</v>
       </c>
       <c r="O4">
-        <v>0.2163812016255814</v>
+        <v>0.2248522691523614</v>
       </c>
       <c r="P4">
-        <v>0.2163812016255814</v>
+        <v>0.2248522691523614</v>
       </c>
       <c r="Q4">
-        <v>70.95535238962668</v>
+        <v>23.55281933235956</v>
       </c>
       <c r="R4">
-        <v>638.5981715066401</v>
+        <v>211.975373991236</v>
       </c>
       <c r="S4">
-        <v>0.0001361307992598722</v>
+        <v>4.464782781347592E-05</v>
       </c>
       <c r="T4">
-        <v>0.0001361307992598722</v>
+        <v>4.464782781347592E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>14915.263184</v>
       </c>
       <c r="I5">
-        <v>0.9924561027819714</v>
+        <v>0.9806494927176636</v>
       </c>
       <c r="J5">
-        <v>0.9924561027819713</v>
+        <v>0.9806494927176637</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.307106666666667</v>
+        <v>0.428743</v>
       </c>
       <c r="N5">
-        <v>3.92132</v>
+        <v>1.286229</v>
       </c>
       <c r="O5">
-        <v>0.01256263154946851</v>
+        <v>0.00412050394863168</v>
       </c>
       <c r="P5">
-        <v>0.01256263154946851</v>
+        <v>0.00412050394863168</v>
       </c>
       <c r="Q5">
-        <v>6498.613314298097</v>
+        <v>2131.604894432571</v>
       </c>
       <c r="R5">
-        <v>58487.51982868288</v>
+        <v>19184.44404989314</v>
       </c>
       <c r="S5">
-        <v>0.01246786034827135</v>
+        <v>0.004040770106966787</v>
       </c>
       <c r="T5">
-        <v>0.01246786034827135</v>
+        <v>0.004040770106966787</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>14915.263184</v>
       </c>
       <c r="I6">
-        <v>0.9924561027819714</v>
+        <v>0.9806494927176636</v>
       </c>
       <c r="J6">
-        <v>0.9924561027819713</v>
+        <v>0.9806494927176637</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>80.22623700000001</v>
+        <v>80.22623699999998</v>
       </c>
       <c r="N6">
         <v>240.678711</v>
       </c>
       <c r="O6">
-        <v>0.77105616682495</v>
+        <v>0.7710272268990069</v>
       </c>
       <c r="P6">
-        <v>0.77105616682495</v>
+        <v>0.7710272268990069</v>
       </c>
       <c r="Q6">
-        <v>398865.1463723196</v>
+        <v>398865.1463723194</v>
       </c>
       <c r="R6">
-        <v>3589786.317350876</v>
+        <v>3589786.317350875</v>
       </c>
       <c r="S6">
-        <v>0.7652393983530955</v>
+        <v>0.7561074589300181</v>
       </c>
       <c r="T6">
-        <v>0.7652393983530954</v>
+        <v>0.7561074589300181</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>14915.263184</v>
       </c>
       <c r="I7">
-        <v>0.9924561027819714</v>
+        <v>0.9806494927176636</v>
       </c>
       <c r="J7">
-        <v>0.9924561027819713</v>
+        <v>0.9806494927176637</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>22.51385866666667</v>
+        <v>23.39612766666667</v>
       </c>
       <c r="N7">
-        <v>67.54157600000001</v>
+        <v>70.188383</v>
       </c>
       <c r="O7">
-        <v>0.2163812016255814</v>
+        <v>0.2248522691523614</v>
       </c>
       <c r="P7">
-        <v>0.2163812016255814</v>
+        <v>0.2248522691523614</v>
       </c>
       <c r="Q7">
-        <v>111933.3757669042</v>
+        <v>116319.8005449324</v>
       </c>
       <c r="R7">
-        <v>1007400.381902138</v>
+        <v>1046878.204904391</v>
       </c>
       <c r="S7">
-        <v>0.2147488440806045</v>
+        <v>0.2205012636806788</v>
       </c>
       <c r="T7">
-        <v>0.2147488440806045</v>
+        <v>0.2205012636806788</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>34.63986933333333</v>
+        <v>97.097641</v>
       </c>
       <c r="H8">
-        <v>103.919608</v>
+        <v>291.292923</v>
       </c>
       <c r="I8">
-        <v>0.006914772329927541</v>
+        <v>0.01915194211783179</v>
       </c>
       <c r="J8">
-        <v>0.006914772329927542</v>
+        <v>0.01915194211783179</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.307106666666667</v>
+        <v>0.428743</v>
       </c>
       <c r="N8">
-        <v>3.92132</v>
+        <v>1.286229</v>
       </c>
       <c r="O8">
-        <v>0.01256263154946851</v>
+        <v>0.00412050394863168</v>
       </c>
       <c r="P8">
-        <v>0.01256263154946851</v>
+        <v>0.00412050394863168</v>
       </c>
       <c r="Q8">
-        <v>45.27800413806222</v>
+        <v>41.629933895263</v>
       </c>
       <c r="R8">
-        <v>407.50203724256</v>
+        <v>374.669405057367</v>
       </c>
       <c r="S8">
-        <v>8.686773702933958E-05</v>
+        <v>7.891565312049127E-05</v>
       </c>
       <c r="T8">
-        <v>8.68677370293396E-05</v>
+        <v>7.891565312049127E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>34.63986933333333</v>
+        <v>97.097641</v>
       </c>
       <c r="H9">
-        <v>103.919608</v>
+        <v>291.292923</v>
       </c>
       <c r="I9">
-        <v>0.006914772329927541</v>
+        <v>0.01915194211783179</v>
       </c>
       <c r="J9">
-        <v>0.006914772329927542</v>
+        <v>0.01915194211783179</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,28 +986,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>80.22623700000001</v>
+        <v>80.22623699999998</v>
       </c>
       <c r="N9">
         <v>240.678711</v>
       </c>
       <c r="O9">
-        <v>0.77105616682495</v>
+        <v>0.7710272268990069</v>
       </c>
       <c r="P9">
-        <v>0.77105616682495</v>
+        <v>0.7710272268990069</v>
       </c>
       <c r="Q9">
-        <v>2779.026366785032</v>
+        <v>7789.778359006915</v>
       </c>
       <c r="R9">
-        <v>25011.23730106529</v>
+        <v>70108.00523106224</v>
       </c>
       <c r="S9">
-        <v>0.005331677847181159</v>
+        <v>0.01476666882084214</v>
       </c>
       <c r="T9">
-        <v>0.005331677847181159</v>
+        <v>0.01476666882084214</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>34.63986933333333</v>
+        <v>97.097641</v>
       </c>
       <c r="H10">
-        <v>103.919608</v>
+        <v>291.292923</v>
       </c>
       <c r="I10">
-        <v>0.006914772329927541</v>
+        <v>0.01915194211783179</v>
       </c>
       <c r="J10">
-        <v>0.006914772329927542</v>
+        <v>0.01915194211783179</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>22.51385866666667</v>
+        <v>23.39612766666667</v>
       </c>
       <c r="N10">
-        <v>67.54157600000001</v>
+        <v>70.188383</v>
       </c>
       <c r="O10">
-        <v>0.2163812016255814</v>
+        <v>0.2248522691523614</v>
       </c>
       <c r="P10">
-        <v>0.2163812016255814</v>
+        <v>0.2248522691523614</v>
       </c>
       <c r="Q10">
-        <v>779.8771224024675</v>
+        <v>2271.708804968168</v>
       </c>
       <c r="R10">
-        <v>7018.894101622209</v>
+        <v>20445.37924471351</v>
       </c>
       <c r="S10">
-        <v>0.001496226745717043</v>
+        <v>0.00430635764386916</v>
       </c>
       <c r="T10">
-        <v>0.001496226745717043</v>
+        <v>0.00430635764386916</v>
       </c>
     </row>
   </sheetData>
